--- a/results/mp/logistic/corona/confidence/42/stop-words-desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-desired-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,193 +46,202 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
+    <t>protect</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>data</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
 </sst>
 </file>
@@ -590,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,37 +668,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3">
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8287671232876712</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C4">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D4">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -830,16 +839,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -909,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7222222222222222</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C8">
         <v>26</v>
@@ -927,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>344</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>344</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.9033942558746736</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L9">
-        <v>346</v>
+        <v>94</v>
       </c>
       <c r="M9">
-        <v>346</v>
+        <v>94</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6296296296296297</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C10">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.9017857142857143</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5523255813953488</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.890625</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4915254237288136</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C12">
+        <v>107</v>
+      </c>
+      <c r="D12">
+        <v>107</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>82</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L12">
         <v>29</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>29</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L12">
-        <v>32</v>
-      </c>
-      <c r="M12">
-        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1159,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4901960784313725</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1180,16 +1189,16 @@
         <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.8837209302325582</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.36</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.8802816901408451</v>
+        <v>0.8671875</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1259,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3392857142857143</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.8793103448275862</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.275</v>
+        <v>0.475</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.8723404255319149</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2684563758389262</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.8636363636363636</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1388888888888889</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.8536585365853658</v>
+        <v>0.8375</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="M18">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.06702412868632708</v>
+        <v>0.32</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1477,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>348</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.85</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L19">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,132 +1518,228 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01033925686591276</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C20">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>213</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>0.813953488372093</v>
+      </c>
+      <c r="L20">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.1340482573726542</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>323</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="L21">
+        <v>51</v>
+      </c>
+      <c r="M21">
+        <v>51</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>281</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L22">
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <v>29</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.01813471502590673</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>0.12</v>
+      </c>
+      <c r="F23">
+        <v>0.88</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1137</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>0.8</v>
+      </c>
+      <c r="L23">
         <v>32</v>
       </c>
-      <c r="D20">
-        <v>44</v>
-      </c>
-      <c r="E20">
-        <v>0.27</v>
-      </c>
-      <c r="F20">
-        <v>0.73</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>3063</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.839622641509434</v>
-      </c>
-      <c r="L20">
-        <v>89</v>
-      </c>
-      <c r="M20">
-        <v>89</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L21">
-        <v>22</v>
-      </c>
-      <c r="M21">
-        <v>22</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
+      <c r="M23">
+        <v>32</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.01487229227287423</v>
+      </c>
+      <c r="C24">
         <v>46</v>
       </c>
-      <c r="K22">
-        <v>0.8125</v>
-      </c>
-      <c r="L22">
-        <v>39</v>
-      </c>
-      <c r="M22">
-        <v>39</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L23">
-        <v>19</v>
-      </c>
-      <c r="M23">
-        <v>19</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>0.23</v>
+      </c>
+      <c r="F24">
+        <v>0.77</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3047</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K24">
         <v>0.7857142857142857</v>
@@ -1659,17 +1764,41 @@
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.01228733459357278</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>0.51</v>
+      </c>
+      <c r="F25">
+        <v>0.49</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2090</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.78</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1685,17 +1814,41 @@
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.009220985691573928</v>
+      </c>
+      <c r="C26">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>0.66</v>
+      </c>
+      <c r="F26">
+        <v>0.34</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3116</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.7619047619047619</v>
+        <v>0.7264705882352941</v>
       </c>
       <c r="L26">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="M26">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1707,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.7428571428571429</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1733,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.7407407407407407</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1759,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.7235294117647059</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L29">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="M29">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1785,47 +1938,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.7201365187713311</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L30">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.702928870292887</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L31">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1837,15 +1990,15 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.696969696969697</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L32">
         <v>23</v>
@@ -1863,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33">
+        <v>0.6404494382022472</v>
+      </c>
+      <c r="L33">
         <v>57</v>
       </c>
-      <c r="K33">
-        <v>0.6808510638297872</v>
-      </c>
-      <c r="L33">
-        <v>64</v>
-      </c>
       <c r="M33">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1889,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.6785714285714286</v>
+        <v>0.64</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1915,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.676923076923077</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L35">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1941,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.675</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1967,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.6714285714285714</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L37">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1993,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.6629213483146067</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L38">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2019,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.6274509803921569</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2050,16 +2203,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.5555555555555556</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2071,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.5476190476190477</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2097,47 +2250,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.5068493150684932</v>
+        <v>0.421875</v>
       </c>
       <c r="L42">
+        <v>27</v>
+      </c>
+      <c r="M42">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>37</v>
-      </c>
-      <c r="M42">
-        <v>37</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2149,21 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.4067796610169492</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2175,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K45">
-        <v>0.375</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2201,85 +2354,59 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>40</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="K46">
-        <v>0.360655737704918</v>
+        <v>0.01765447667087012</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>39</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="K47">
-        <v>0.3508771929824561</v>
+        <v>0.01275389702409069</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K48">
-        <v>0.01066834013178538</v>
-      </c>
-      <c r="L48">
-        <v>34</v>
-      </c>
-      <c r="M48">
-        <v>48</v>
-      </c>
-      <c r="N48">
-        <v>0.71</v>
-      </c>
-      <c r="O48">
-        <v>0.29</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>3153</v>
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
